--- a/4-Te-dhenat-per-kataster/regjistri/18-Koordinatat-e-ndërtesës-2602-0-Albnori.xlsx
+++ b/4-Te-dhenat-per-kataster/regjistri/18-Koordinatat-e-ndërtesës-2602-0-Albnori.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Ferizaj\Ferizaj\Ingjinierike\565-6-Shefkia1\4-Te-dhenat-per-kataster\regjistri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Ferizaj\Ferizaj\Ingjinierike\2602-0-Albnori\4-Te-dhenat-per-kataster\regjistri\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>Nr</t>
   </si>
@@ -510,6 +510,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -587,15 +596,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -900,7 +900,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>00565-6</a:t>
+            <a:t>02602-0</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1281,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:I18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="C14:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1298,112 +1298,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -1431,16 +1431,16 @@
     </row>
     <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C15" s="9">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D15" s="10">
-        <v>7510843.9336000001</v>
+        <v>7513135.568</v>
       </c>
       <c r="E15" s="10">
-        <v>4693754.3136</v>
+        <v>4691722.8739999998</v>
       </c>
       <c r="F15" s="10">
-        <v>580.96799999999996</v>
+        <v>620.11199999999997</v>
       </c>
       <c r="G15" s="7">
         <v>40</v>
@@ -1454,16 +1454,16 @@
     </row>
     <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C16" s="9">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D16" s="10">
-        <v>7510835.4665000001</v>
+        <v>7513132.5010000002</v>
       </c>
       <c r="E16" s="10">
-        <v>4693745.7829</v>
+        <v>4691720.0990000004</v>
       </c>
       <c r="F16" s="10">
-        <v>580.96799999999996</v>
+        <v>620.11199999999997</v>
       </c>
       <c r="G16" s="7">
         <v>40</v>
@@ -1477,16 +1477,16 @@
     </row>
     <row r="17" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C17" s="9">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D17" s="10">
-        <v>7510831.7971999999</v>
+        <v>7513133.2570000002</v>
       </c>
       <c r="E17" s="10">
-        <v>4693766.6201999998</v>
+        <v>4691719.3229999999</v>
       </c>
       <c r="F17" s="10">
-        <v>580.96799999999996</v>
+        <v>620.11199999999997</v>
       </c>
       <c r="G17" s="7">
         <v>40</v>
@@ -1498,164 +1498,276 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="11">
-        <v>56</v>
-      </c>
-      <c r="D18" s="12">
-        <v>7510823.2538000001</v>
-      </c>
-      <c r="E18" s="12">
-        <v>4693758.1205000002</v>
-      </c>
-      <c r="F18" s="12">
-        <v>580.96799999999996</v>
-      </c>
-      <c r="G18" s="13">
+    <row r="18" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C18" s="9">
+        <v>7</v>
+      </c>
+      <c r="D18" s="10">
+        <v>7513128.9859999996</v>
+      </c>
+      <c r="E18" s="10">
+        <v>4691715.5049999999</v>
+      </c>
+      <c r="F18" s="10">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="G18" s="7">
         <v>40</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="43"/>
+      <c r="C19" s="9">
+        <v>11</v>
+      </c>
+      <c r="D19" s="10">
+        <v>7513130.5959999999</v>
+      </c>
+      <c r="E19" s="10">
+        <v>4691713.7060000002</v>
+      </c>
+      <c r="F19" s="10">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="G19" s="7">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="43"/>
+      <c r="C20" s="9">
+        <v>12</v>
+      </c>
+      <c r="D20" s="10">
+        <v>7513129.4539999999</v>
+      </c>
+      <c r="E20" s="10">
+        <v>4691712.6560000004</v>
+      </c>
+      <c r="F20" s="10">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="G20" s="7">
+        <v>40</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="43"/>
+      <c r="C21" s="9">
+        <v>13</v>
+      </c>
+      <c r="D21" s="10">
+        <v>7513129.1720000003</v>
+      </c>
+      <c r="E21" s="10">
+        <v>4691712.0049999999</v>
+      </c>
+      <c r="F21" s="10">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="G21" s="7">
+        <v>40</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="43"/>
+      <c r="C22" s="9">
+        <v>14</v>
+      </c>
+      <c r="D22" s="10">
+        <v>7513129.6200000001</v>
+      </c>
+      <c r="E22" s="10">
+        <v>4691710.9950000001</v>
+      </c>
+      <c r="F22" s="10">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="G22" s="7">
+        <v>40</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="43"/>
+      <c r="C23" s="9">
+        <v>15</v>
+      </c>
+      <c r="D23" s="10">
+        <v>7513132.6849999996</v>
+      </c>
+      <c r="E23" s="10">
+        <v>4691707.6550000003</v>
+      </c>
+      <c r="F23" s="10">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="G23" s="7">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="43"/>
+      <c r="C24" s="9">
+        <v>65</v>
+      </c>
+      <c r="D24" s="10">
+        <v>7513134.1550000003</v>
+      </c>
+      <c r="E24" s="10">
+        <v>4691707.0219999999</v>
+      </c>
+      <c r="F24" s="10">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="G24" s="7">
+        <v>40</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="43"/>
+      <c r="C25" s="9">
+        <v>67</v>
+      </c>
+      <c r="D25" s="10">
+        <v>7513135.8569999998</v>
+      </c>
+      <c r="E25" s="10">
+        <v>4691707.7450000001</v>
+      </c>
+      <c r="F25" s="10">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="G25" s="7">
+        <v>40</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="43"/>
+      <c r="C26" s="11">
+        <v>68</v>
+      </c>
+      <c r="D26" s="12">
+        <v>7513143.2529999996</v>
+      </c>
+      <c r="E26" s="12">
+        <v>4691714.4639999997</v>
+      </c>
+      <c r="F26" s="12">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="G26" s="13">
+        <v>40</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>10</v>
+      </c>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="43"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="17"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="43"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="17"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="43"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="17"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="43"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="17"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>
@@ -1834,34 +1946,34 @@
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="30" t="s">
+      <c r="E47" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="30"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="26" t="s">
+      <c r="F47" s="33"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="I47" s="27"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="38"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="41"/>
     </row>
     <row r="48" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="32" t="s">
+      <c r="A48" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="35">
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="38">
         <v>152</v>
       </c>
-      <c r="F48" s="35"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="40"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="43"/>
     </row>
     <row r="49" spans="11:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K49" s="4"/>

--- a/4-Te-dhenat-per-kataster/regjistri/18-Koordinatat-e-ndërtesës-2602-0-Albnori.xlsx
+++ b/4-Te-dhenat-per-kataster/regjistri/18-Koordinatat-e-ndërtesës-2602-0-Albnori.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Ferizaj\Ferizaj\Ingjinierike\2602-0-Albnori\4-Te-dhenat-per-kataster\regjistri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Ferizaj\Ferizaj\Ingjinierike\2602-0-Albnori\1-Situacioni\regjistri\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,27 +13,22 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$36</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="52">
   <si>
     <t>Nr</t>
   </si>
@@ -75,10 +70,124 @@
 </t>
   </si>
   <si>
-    <t>Sead Prushi</t>
-  </si>
-  <si>
     <t>Shtëpi-Ndërtesë</t>
+  </si>
+  <si>
+    <t>DSC</t>
+  </si>
+  <si>
+    <t>STREHA</t>
+  </si>
+  <si>
+    <t>TK2-5</t>
+  </si>
+  <si>
+    <t>TK2-7</t>
+  </si>
+  <si>
+    <t>TK2-8</t>
+  </si>
+  <si>
+    <t>TK3-1</t>
+  </si>
+  <si>
+    <t>TK3-10</t>
+  </si>
+  <si>
+    <t>TK3-11</t>
+  </si>
+  <si>
+    <t>TK3-12</t>
+  </si>
+  <si>
+    <t>TK3-2</t>
+  </si>
+  <si>
+    <t>TK3-3</t>
+  </si>
+  <si>
+    <t>TK3-4</t>
+  </si>
+  <si>
+    <t>TK3-5</t>
+  </si>
+  <si>
+    <t>TK3-7</t>
+  </si>
+  <si>
+    <t>TK3-8</t>
+  </si>
+  <si>
+    <t>TK3-9</t>
+  </si>
+  <si>
+    <t>TK4-1</t>
+  </si>
+  <si>
+    <t>TK4-10</t>
+  </si>
+  <si>
+    <t>TK4-11</t>
+  </si>
+  <si>
+    <t>TK4-12</t>
+  </si>
+  <si>
+    <t>TK4-2</t>
+  </si>
+  <si>
+    <t>TK4-3</t>
+  </si>
+  <si>
+    <t>TK4-4</t>
+  </si>
+  <si>
+    <t>TK4-5</t>
+  </si>
+  <si>
+    <t>TK4-7</t>
+  </si>
+  <si>
+    <t>TK4-8</t>
+  </si>
+  <si>
+    <t>TK4-9</t>
+  </si>
+  <si>
+    <t>Ujembledhes</t>
+  </si>
+  <si>
+    <t>PERDHESA</t>
+  </si>
+  <si>
+    <t>FS1</t>
+  </si>
+  <si>
+    <t>FS2</t>
+  </si>
+  <si>
+    <t>KULMI</t>
+  </si>
+  <si>
+    <t>KYQJE-UJSJELLES</t>
+  </si>
+  <si>
+    <t>PUSET-FEKAL</t>
+  </si>
+  <si>
+    <t>SHKALET</t>
+  </si>
+  <si>
+    <t>SHTYLL-ELEKTRIKE</t>
+  </si>
+  <si>
+    <t>ST1</t>
+  </si>
+  <si>
+    <t>ST2</t>
+  </si>
+  <si>
+    <t>Liridon Sejdiu</t>
   </si>
 </sst>
 </file>
@@ -88,7 +197,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,16 +234,323 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -468,11 +884,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -510,15 +1087,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -598,8 +1186,49 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -738,7 +1367,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> Frizaj</a:t>
+            <a:t> Ferizaj</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400" b="1">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -828,7 +1457,7 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>89338</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3528327" cy="298800"/>
+    <xdr:ext cx="3528327" cy="505267"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="TextBox 5">
@@ -843,7 +1472,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1211761" y="2588250"/>
-          <a:ext cx="3528327" cy="298800"/>
+          <a:ext cx="3528327" cy="505267"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -870,6 +1499,23 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1400" b="1">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -902,6 +1548,24 @@
             </a:rPr>
             <a:t>02602-0</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="1" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1279,10 +1943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="C14:I26"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1298,112 +1962,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -1442,11 +2106,11 @@
       <c r="F15" s="10">
         <v>620.11199999999997</v>
       </c>
-      <c r="G15" s="7">
-        <v>40</v>
+      <c r="G15" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>10</v>
@@ -1465,11 +2129,11 @@
       <c r="F16" s="10">
         <v>620.11199999999997</v>
       </c>
-      <c r="G16" s="7">
-        <v>40</v>
+      <c r="G16" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>10</v>
@@ -1488,17 +2152,19 @@
       <c r="F17" s="10">
         <v>620.11199999999997</v>
       </c>
-      <c r="G17" s="7">
-        <v>40</v>
+      <c r="G17" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
       <c r="C18" s="9">
         <v>7</v>
       </c>
@@ -1511,17 +2177,21 @@
       <c r="F18" s="10">
         <v>620.11199999999997</v>
       </c>
-      <c r="G18" s="7">
-        <v>40</v>
+      <c r="G18" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
       <c r="C19" s="9">
         <v>11</v>
       </c>
@@ -1534,18 +2204,21 @@
       <c r="F19" s="10">
         <v>620.11199999999997</v>
       </c>
-      <c r="G19" s="7">
-        <v>40</v>
+      <c r="G19" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
       <c r="C20" s="9">
         <v>12</v>
       </c>
@@ -1558,19 +2231,21 @@
       <c r="F20" s="10">
         <v>620.11199999999997</v>
       </c>
-      <c r="G20" s="7">
-        <v>40</v>
+      <c r="G20" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="9">
         <v>13</v>
       </c>
@@ -1583,19 +2258,21 @@
       <c r="F21" s="10">
         <v>620.11199999999997</v>
       </c>
-      <c r="G21" s="7">
-        <v>40</v>
+      <c r="G21" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="9">
         <v>14</v>
       </c>
@@ -1608,19 +2285,21 @@
       <c r="F22" s="10">
         <v>620.11199999999997</v>
       </c>
-      <c r="G22" s="7">
-        <v>40</v>
+      <c r="G22" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
       <c r="C23" s="9">
         <v>15</v>
       </c>
@@ -1633,19 +2312,21 @@
       <c r="F23" s="10">
         <v>620.11199999999997</v>
       </c>
-      <c r="G23" s="7">
-        <v>40</v>
+      <c r="G23" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="J23" s="4"/>
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
       <c r="C24" s="9">
         <v>65</v>
       </c>
@@ -1658,19 +2339,21 @@
       <c r="F24" s="10">
         <v>620.11199999999997</v>
       </c>
-      <c r="G24" s="7">
-        <v>40</v>
+      <c r="G24" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="J24" s="4"/>
       <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
       <c r="C25" s="9">
         <v>67</v>
       </c>
@@ -1683,19 +2366,21 @@
       <c r="F25" s="10">
         <v>620.11199999999997</v>
       </c>
-      <c r="G25" s="7">
-        <v>40</v>
+      <c r="G25" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
       <c r="C26" s="11">
         <v>68</v>
       </c>
@@ -1708,66 +2393,47 @@
       <c r="F26" s="12">
         <v>620.11199999999997</v>
       </c>
-      <c r="G26" s="13">
-        <v>40</v>
+      <c r="G26" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I26" s="14" t="s">
         <v>10</v>
       </c>
+      <c r="J26" s="4"/>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="17"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="17"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>
@@ -1784,7 +2450,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1798,205 +2464,1837 @@
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+    <row r="34" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K34" s="4"/>
     </row>
     <row r="35" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-    </row>
-    <row r="36" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
+      <c r="A35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="44"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="41"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="52"/>
+    </row>
+    <row r="36" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="49">
+        <v>140</v>
+      </c>
+      <c r="F36" s="49"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="54"/>
     </row>
     <row r="37" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
       <c r="K37" s="4"/>
     </row>
     <row r="38" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-    </row>
-    <row r="40" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K40" s="4"/>
-    </row>
-    <row r="41" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K41" s="4"/>
-    </row>
-    <row r="42" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-    </row>
-    <row r="43" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-    </row>
-    <row r="44" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-    </row>
-    <row r="45" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K45" s="4"/>
-    </row>
-    <row r="46" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K46" s="4"/>
-    </row>
-    <row r="47" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="33"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="I47" s="30"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="41"/>
-    </row>
-    <row r="48" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="38">
-        <v>152</v>
-      </c>
-      <c r="F48" s="38"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="43"/>
-    </row>
-    <row r="49" spans="11:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K49" s="4"/>
-    </row>
-    <row r="50" spans="11:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K50" s="4"/>
-    </row>
-    <row r="51" spans="11:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K51" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="C8:I10"/>
     <mergeCell ref="A3:K6"/>
     <mergeCell ref="A1:K2"/>
-    <mergeCell ref="H47:I48"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="J47:K48"/>
+    <mergeCell ref="H35:I36"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="J35:K36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E7:AA47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.85546875" customWidth="1"/>
+    <col min="12" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" customWidth="1"/>
+    <col min="18" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="T8" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="U8" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E9" s="17">
+        <v>88</v>
+      </c>
+      <c r="F9" s="16">
+        <v>7513119.2929999996</v>
+      </c>
+      <c r="G9" s="16">
+        <v>4691709.2750000004</v>
+      </c>
+      <c r="H9" s="16">
+        <v>619.928</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="17">
+        <v>8</v>
+      </c>
+      <c r="L9" s="16">
+        <v>7513128.7640000004</v>
+      </c>
+      <c r="M9" s="16">
+        <v>4691715.8310000002</v>
+      </c>
+      <c r="N9" s="16">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>41</v>
+      </c>
+      <c r="R9" s="16">
+        <v>7510832.7000000002</v>
+      </c>
+      <c r="S9" s="16">
+        <v>4693767.3870000001</v>
+      </c>
+      <c r="T9" s="16">
+        <v>587.18700000000001</v>
+      </c>
+      <c r="U9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="W9">
+        <v>88</v>
+      </c>
+      <c r="X9">
+        <v>7513119.2929999996</v>
+      </c>
+      <c r="Y9">
+        <v>4691709.2750000004</v>
+      </c>
+      <c r="Z9">
+        <v>619.928</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E10" s="25">
+        <v>92</v>
+      </c>
+      <c r="F10" s="19">
+        <v>7513134.4440000001</v>
+      </c>
+      <c r="G10" s="19">
+        <v>4691697.2300000004</v>
+      </c>
+      <c r="H10" s="19">
+        <v>619.81899999999996</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="25">
+        <v>9</v>
+      </c>
+      <c r="L10" s="19">
+        <v>7513126.8399999999</v>
+      </c>
+      <c r="M10" s="19">
+        <v>4691714.1189999999</v>
+      </c>
+      <c r="N10" s="19">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q10" s="25">
+        <v>65</v>
+      </c>
+      <c r="R10" s="19">
+        <v>7510834.4950000001</v>
+      </c>
+      <c r="S10" s="19">
+        <v>4693744.9019999998</v>
+      </c>
+      <c r="T10" s="19">
+        <v>587.375</v>
+      </c>
+      <c r="U10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="W10">
+        <v>92</v>
+      </c>
+      <c r="X10">
+        <v>7513134.4440000001</v>
+      </c>
+      <c r="Y10">
+        <v>4691697.2300000004</v>
+      </c>
+      <c r="Z10">
+        <v>619.81899999999996</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E11" s="25">
+        <v>53</v>
+      </c>
+      <c r="F11" s="19">
+        <v>7513131.1179999998</v>
+      </c>
+      <c r="G11" s="19">
+        <v>4691717.9220000003</v>
+      </c>
+      <c r="H11" s="19">
+        <v>634.43899999999996</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="25">
+        <v>10</v>
+      </c>
+      <c r="L11" s="19">
+        <v>7513129.2309999997</v>
+      </c>
+      <c r="M11" s="19">
+        <v>4691711.4869999997</v>
+      </c>
+      <c r="N11" s="19">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q11" s="25">
+        <v>66</v>
+      </c>
+      <c r="R11" s="19">
+        <v>7510822.3530000001</v>
+      </c>
+      <c r="S11" s="19">
+        <v>4693757.1469999999</v>
+      </c>
+      <c r="T11" s="19">
+        <v>588.27300000000002</v>
+      </c>
+      <c r="U11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="W11">
+        <v>53</v>
+      </c>
+      <c r="X11">
+        <v>7513131.1179999998</v>
+      </c>
+      <c r="Y11">
+        <v>4691717.9220000003</v>
+      </c>
+      <c r="Z11">
+        <v>634.43899999999996</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E12" s="25">
+        <v>17</v>
+      </c>
+      <c r="F12" s="19">
+        <v>7513126.2609999999</v>
+      </c>
+      <c r="G12" s="19">
+        <v>4691714.5999999996</v>
+      </c>
+      <c r="H12" s="19">
+        <v>620.05600000000004</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="25">
+        <v>22</v>
+      </c>
+      <c r="L12" s="19">
+        <v>7513130.176</v>
+      </c>
+      <c r="M12" s="19">
+        <v>4691693.9610000001</v>
+      </c>
+      <c r="N12" s="19">
+        <v>619.75699999999995</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q12" s="25">
+        <v>42</v>
+      </c>
+      <c r="R12" s="19">
+        <v>7510843.898</v>
+      </c>
+      <c r="S12" s="19">
+        <v>4693754.335</v>
+      </c>
+      <c r="T12" s="19">
+        <v>590.178</v>
+      </c>
+      <c r="U12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="W12">
+        <v>17</v>
+      </c>
+      <c r="X12">
+        <v>7513126.2609999999</v>
+      </c>
+      <c r="Y12">
+        <v>4691714.5999999996</v>
+      </c>
+      <c r="Z12">
+        <v>620.05600000000004</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E13" s="25">
+        <v>1</v>
+      </c>
+      <c r="F13" s="19">
+        <v>7513135.568</v>
+      </c>
+      <c r="G13" s="19">
+        <v>4691722.8739999998</v>
+      </c>
+      <c r="H13" s="19">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="25">
+        <v>86</v>
+      </c>
+      <c r="L13" s="19">
+        <v>7513106.3210000005</v>
+      </c>
+      <c r="M13" s="19">
+        <v>4691683.375</v>
+      </c>
+      <c r="N13" s="19">
+        <v>619.49699999999996</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" s="25">
+        <v>70</v>
+      </c>
+      <c r="R13" s="19">
+        <v>7510823.3039999995</v>
+      </c>
+      <c r="S13" s="19">
+        <v>4693758.0789999999</v>
+      </c>
+      <c r="T13" s="19">
+        <v>590.18700000000001</v>
+      </c>
+      <c r="U13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>7513135.568</v>
+      </c>
+      <c r="Y13">
+        <v>4691722.8739999998</v>
+      </c>
+      <c r="Z13">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E14" s="25">
+        <v>2</v>
+      </c>
+      <c r="F14" s="19">
+        <v>7513132.5010000002</v>
+      </c>
+      <c r="G14" s="19">
+        <v>4691720.0990000004</v>
+      </c>
+      <c r="H14" s="19">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="25">
+        <v>87</v>
+      </c>
+      <c r="L14" s="19">
+        <v>7513162.1500000004</v>
+      </c>
+      <c r="M14" s="19">
+        <v>4691668.3320000004</v>
+      </c>
+      <c r="N14" s="19">
+        <v>619.82500000000005</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="25">
+        <v>71</v>
+      </c>
+      <c r="R14" s="19">
+        <v>7510822.4110000003</v>
+      </c>
+      <c r="S14" s="19">
+        <v>4693757.165</v>
+      </c>
+      <c r="T14" s="19">
+        <v>590.17399999999998</v>
+      </c>
+      <c r="U14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="W14">
+        <v>2</v>
+      </c>
+      <c r="X14">
+        <v>7513132.5010000002</v>
+      </c>
+      <c r="Y14">
+        <v>4691720.0990000004</v>
+      </c>
+      <c r="Z14">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E15" s="25">
+        <v>6</v>
+      </c>
+      <c r="F15" s="19">
+        <v>7513133.2570000002</v>
+      </c>
+      <c r="G15" s="19">
+        <v>4691719.3229999999</v>
+      </c>
+      <c r="H15" s="19">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="25">
+        <v>54</v>
+      </c>
+      <c r="L15" s="19">
+        <v>7513135.5049999999</v>
+      </c>
+      <c r="M15" s="19">
+        <v>4691723.3190000001</v>
+      </c>
+      <c r="N15" s="19">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="25">
+        <v>72</v>
+      </c>
+      <c r="R15" s="19">
+        <v>7510822.4000000004</v>
+      </c>
+      <c r="S15" s="19">
+        <v>4693757.1540000001</v>
+      </c>
+      <c r="T15" s="19">
+        <v>591.33199999999999</v>
+      </c>
+      <c r="U15" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="W15">
+        <v>6</v>
+      </c>
+      <c r="X15">
+        <v>7513133.2570000002</v>
+      </c>
+      <c r="Y15">
+        <v>4691719.3229999999</v>
+      </c>
+      <c r="Z15">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E16" s="25">
+        <v>7</v>
+      </c>
+      <c r="F16" s="19">
+        <v>7513128.9859999996</v>
+      </c>
+      <c r="G16" s="19">
+        <v>4691715.5049999999</v>
+      </c>
+      <c r="H16" s="19">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="25">
+        <v>55</v>
+      </c>
+      <c r="L16" s="19">
+        <v>7513132.0180000002</v>
+      </c>
+      <c r="M16" s="19">
+        <v>4691720.1610000003</v>
+      </c>
+      <c r="N16" s="19">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="25">
+        <v>43</v>
+      </c>
+      <c r="R16" s="19">
+        <v>7510844.7580000004</v>
+      </c>
+      <c r="S16" s="19">
+        <v>4693755.1890000002</v>
+      </c>
+      <c r="T16" s="19">
+        <v>590.18700000000001</v>
+      </c>
+      <c r="U16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="W16">
+        <v>7</v>
+      </c>
+      <c r="X16">
+        <v>7513128.9859999996</v>
+      </c>
+      <c r="Y16">
+        <v>4691715.5049999999</v>
+      </c>
+      <c r="Z16">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E17" s="25">
+        <v>11</v>
+      </c>
+      <c r="F17" s="19">
+        <v>7513130.5959999999</v>
+      </c>
+      <c r="G17" s="19">
+        <v>4691713.7060000002</v>
+      </c>
+      <c r="H17" s="19">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="25">
+        <v>56</v>
+      </c>
+      <c r="L17" s="19">
+        <v>7513133.0020000003</v>
+      </c>
+      <c r="M17" s="19">
+        <v>4691719.1229999997</v>
+      </c>
+      <c r="N17" s="19">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="25">
+        <v>44</v>
+      </c>
+      <c r="R17" s="19">
+        <v>7510844.7620000001</v>
+      </c>
+      <c r="S17" s="19">
+        <v>4693755.193</v>
+      </c>
+      <c r="T17" s="19">
+        <v>591.33799999999997</v>
+      </c>
+      <c r="U17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="W17">
+        <v>11</v>
+      </c>
+      <c r="X17">
+        <v>7513130.5959999999</v>
+      </c>
+      <c r="Y17">
+        <v>4691713.7060000002</v>
+      </c>
+      <c r="Z17">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E18" s="25">
+        <v>12</v>
+      </c>
+      <c r="F18" s="19">
+        <v>7513129.4539999999</v>
+      </c>
+      <c r="G18" s="19">
+        <v>4691712.6560000004</v>
+      </c>
+      <c r="H18" s="19">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="25">
+        <v>57</v>
+      </c>
+      <c r="L18" s="19">
+        <v>7513132.79</v>
+      </c>
+      <c r="M18" s="19">
+        <v>4691719.4119999995</v>
+      </c>
+      <c r="N18" s="19">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="25">
+        <v>45</v>
+      </c>
+      <c r="R18" s="19">
+        <v>7510831.8420000002</v>
+      </c>
+      <c r="S18" s="19">
+        <v>4693766.5580000002</v>
+      </c>
+      <c r="T18" s="19">
+        <v>593.30399999999997</v>
+      </c>
+      <c r="U18" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="W18">
+        <v>12</v>
+      </c>
+      <c r="X18">
+        <v>7513129.4539999999</v>
+      </c>
+      <c r="Y18">
+        <v>4691712.6560000004</v>
+      </c>
+      <c r="Z18">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E19" s="25">
+        <v>13</v>
+      </c>
+      <c r="F19" s="19">
+        <v>7513129.1720000003</v>
+      </c>
+      <c r="G19" s="19">
+        <v>4691712.0049999999</v>
+      </c>
+      <c r="H19" s="19">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="25">
+        <v>58</v>
+      </c>
+      <c r="L19" s="19">
+        <v>7513129.1050000004</v>
+      </c>
+      <c r="M19" s="19">
+        <v>4691716.0439999998</v>
+      </c>
+      <c r="N19" s="19">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="25">
+        <v>46</v>
+      </c>
+      <c r="R19" s="19">
+        <v>7510832.6900000004</v>
+      </c>
+      <c r="S19" s="19">
+        <v>4693767.4069999997</v>
+      </c>
+      <c r="T19" s="19">
+        <v>593.298</v>
+      </c>
+      <c r="U19" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W19">
+        <v>13</v>
+      </c>
+      <c r="X19">
+        <v>7513129.1720000003</v>
+      </c>
+      <c r="Y19">
+        <v>4691712.0049999999</v>
+      </c>
+      <c r="Z19">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E20" s="25">
+        <v>14</v>
+      </c>
+      <c r="F20" s="19">
+        <v>7513129.6200000001</v>
+      </c>
+      <c r="G20" s="19">
+        <v>4691710.9950000001</v>
+      </c>
+      <c r="H20" s="19">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="25">
+        <v>59</v>
+      </c>
+      <c r="L20" s="19">
+        <v>7513127.0199999996</v>
+      </c>
+      <c r="M20" s="19">
+        <v>4691714.199</v>
+      </c>
+      <c r="N20" s="19">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="25">
+        <v>67</v>
+      </c>
+      <c r="R20" s="19">
+        <v>7510835.4249999998</v>
+      </c>
+      <c r="S20" s="19">
+        <v>4693745.824</v>
+      </c>
+      <c r="T20" s="19">
+        <v>590.16700000000003</v>
+      </c>
+      <c r="U20" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="W20">
+        <v>14</v>
+      </c>
+      <c r="X20">
+        <v>7513129.6200000001</v>
+      </c>
+      <c r="Y20">
+        <v>4691710.9950000001</v>
+      </c>
+      <c r="Z20">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E21" s="25">
+        <v>15</v>
+      </c>
+      <c r="F21" s="19">
+        <v>7513132.6849999996</v>
+      </c>
+      <c r="G21" s="19">
+        <v>4691707.6550000003</v>
+      </c>
+      <c r="H21" s="19">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="25">
+        <v>60</v>
+      </c>
+      <c r="L21" s="19">
+        <v>7513127.1469999999</v>
+      </c>
+      <c r="M21" s="19">
+        <v>4691713.0619999999</v>
+      </c>
+      <c r="N21" s="19">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="25">
+        <v>68</v>
+      </c>
+      <c r="R21" s="19">
+        <v>7510834.5439999998</v>
+      </c>
+      <c r="S21" s="19">
+        <v>4693744.9340000004</v>
+      </c>
+      <c r="T21" s="19">
+        <v>590.14400000000001</v>
+      </c>
+      <c r="U21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="W21">
+        <v>15</v>
+      </c>
+      <c r="X21">
+        <v>7513132.6849999996</v>
+      </c>
+      <c r="Y21">
+        <v>4691707.6550000003</v>
+      </c>
+      <c r="Z21">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E22" s="25">
+        <v>65</v>
+      </c>
+      <c r="F22" s="19">
+        <v>7513134.1550000003</v>
+      </c>
+      <c r="G22" s="19">
+        <v>4691707.0219999999</v>
+      </c>
+      <c r="H22" s="19">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="25">
+        <v>61</v>
+      </c>
+      <c r="L22" s="19">
+        <v>7513127.3590000002</v>
+      </c>
+      <c r="M22" s="19">
+        <v>4691711.4989999998</v>
+      </c>
+      <c r="N22" s="19">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="25">
+        <v>69</v>
+      </c>
+      <c r="R22" s="19">
+        <v>7510834.4929999998</v>
+      </c>
+      <c r="S22" s="19">
+        <v>4693745.0290000001</v>
+      </c>
+      <c r="T22" s="19">
+        <v>591.36199999999997</v>
+      </c>
+      <c r="U22" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="W22">
+        <v>65</v>
+      </c>
+      <c r="X22">
+        <v>7513134.1550000003</v>
+      </c>
+      <c r="Y22">
+        <v>4691707.0219999999</v>
+      </c>
+      <c r="Z22">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E23" s="25">
+        <v>67</v>
+      </c>
+      <c r="F23" s="19">
+        <v>7513135.8569999998</v>
+      </c>
+      <c r="G23" s="19">
+        <v>4691707.7450000001</v>
+      </c>
+      <c r="H23" s="19">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="25">
+        <v>62</v>
+      </c>
+      <c r="L23" s="19">
+        <v>7513131.8430000003</v>
+      </c>
+      <c r="M23" s="19">
+        <v>4691706.5820000004</v>
+      </c>
+      <c r="N23" s="19">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q23" s="25">
+        <v>47</v>
+      </c>
+      <c r="R23" s="19">
+        <v>7510843.8969999999</v>
+      </c>
+      <c r="S23" s="19">
+        <v>4693754.3430000003</v>
+      </c>
+      <c r="T23" s="19">
+        <v>593.25900000000001</v>
+      </c>
+      <c r="U23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="W23">
+        <v>67</v>
+      </c>
+      <c r="X23">
+        <v>7513135.8569999998</v>
+      </c>
+      <c r="Y23">
+        <v>4691707.7450000001</v>
+      </c>
+      <c r="Z23">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E24" s="25">
+        <v>68</v>
+      </c>
+      <c r="F24" s="19">
+        <v>7513143.2529999996</v>
+      </c>
+      <c r="G24" s="19">
+        <v>4691714.4639999997</v>
+      </c>
+      <c r="H24" s="19">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" s="25">
+        <v>63</v>
+      </c>
+      <c r="L24" s="19">
+        <v>7513133.0470000003</v>
+      </c>
+      <c r="M24" s="19">
+        <v>4691705.9019999998</v>
+      </c>
+      <c r="N24" s="19">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q24" s="25">
+        <v>76</v>
+      </c>
+      <c r="R24" s="19">
+        <v>7510823.3119999999</v>
+      </c>
+      <c r="S24" s="19">
+        <v>4693758.0619999999</v>
+      </c>
+      <c r="T24" s="19">
+        <v>593.27300000000002</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="W24">
+        <v>68</v>
+      </c>
+      <c r="X24">
+        <v>7513143.2529999996</v>
+      </c>
+      <c r="Y24">
+        <v>4691714.4639999997</v>
+      </c>
+      <c r="Z24">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E25" s="25">
+        <v>18</v>
+      </c>
+      <c r="F25" s="19">
+        <v>7513119.5120000001</v>
+      </c>
+      <c r="G25" s="19">
+        <v>4691717.4189999998</v>
+      </c>
+      <c r="H25" s="19">
+        <v>619.80700000000002</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="25">
+        <v>64</v>
+      </c>
+      <c r="L25" s="19">
+        <v>7513133.8760000002</v>
+      </c>
+      <c r="M25" s="19">
+        <v>4691705.8289999999</v>
+      </c>
+      <c r="N25" s="19">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="O25" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q25" s="25">
+        <v>77</v>
+      </c>
+      <c r="R25" s="19">
+        <v>7510822.3890000004</v>
+      </c>
+      <c r="S25" s="19">
+        <v>4693757.1330000004</v>
+      </c>
+      <c r="T25" s="19">
+        <v>593.26400000000001</v>
+      </c>
+      <c r="U25" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="W25">
+        <v>18</v>
+      </c>
+      <c r="X25">
+        <v>7513119.5120000001</v>
+      </c>
+      <c r="Y25">
+        <v>4691717.4189999998</v>
+      </c>
+      <c r="Z25">
+        <v>619.80700000000002</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E26" s="25">
+        <v>19</v>
+      </c>
+      <c r="F26" s="19">
+        <v>7513128.3839999996</v>
+      </c>
+      <c r="G26" s="19">
+        <v>4691703.3609999996</v>
+      </c>
+      <c r="H26" s="19">
+        <v>619.73699999999997</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="25">
+        <v>84</v>
+      </c>
+      <c r="L26" s="19">
+        <v>7513136.6900000004</v>
+      </c>
+      <c r="M26" s="19">
+        <v>4691707.949</v>
+      </c>
+      <c r="N26" s="19">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="O26" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q26" s="25">
+        <v>78</v>
+      </c>
+      <c r="R26" s="19">
+        <v>7510822.3650000002</v>
+      </c>
+      <c r="S26" s="19">
+        <v>4693757.1229999997</v>
+      </c>
+      <c r="T26" s="19">
+        <v>594.428</v>
+      </c>
+      <c r="U26" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="W26">
+        <v>19</v>
+      </c>
+      <c r="X26">
+        <v>7513128.3839999996</v>
+      </c>
+      <c r="Y26">
+        <v>4691703.3609999996</v>
+      </c>
+      <c r="Z26">
+        <v>619.73699999999997</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="25">
+        <v>20</v>
+      </c>
+      <c r="F27" s="19">
+        <v>7513129.4989999998</v>
+      </c>
+      <c r="G27" s="19">
+        <v>4691699.6840000004</v>
+      </c>
+      <c r="H27" s="19">
+        <v>619.68799999999999</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="21">
+        <v>85</v>
+      </c>
+      <c r="L27" s="18">
+        <v>7513143.7450000001</v>
+      </c>
+      <c r="M27" s="18">
+        <v>4691714.4460000005</v>
+      </c>
+      <c r="N27" s="18">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="O27" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q27" s="25">
+        <v>48</v>
+      </c>
+      <c r="R27" s="19">
+        <v>7510844.7369999997</v>
+      </c>
+      <c r="S27" s="19">
+        <v>4693755.2079999996</v>
+      </c>
+      <c r="T27" s="19">
+        <v>593.27200000000005</v>
+      </c>
+      <c r="U27" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="W27">
+        <v>20</v>
+      </c>
+      <c r="X27">
+        <v>7513129.4989999998</v>
+      </c>
+      <c r="Y27">
+        <v>4691699.6840000004</v>
+      </c>
+      <c r="Z27">
+        <v>619.68799999999999</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="21">
+        <v>21</v>
+      </c>
+      <c r="F28" s="18">
+        <v>7513131.3550000004</v>
+      </c>
+      <c r="G28" s="18">
+        <v>4691697.8609999996</v>
+      </c>
+      <c r="H28" s="18">
+        <v>619.721</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" s="27"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="27"/>
+      <c r="Q28" s="25">
+        <v>49</v>
+      </c>
+      <c r="R28" s="19">
+        <v>7510844.7620000001</v>
+      </c>
+      <c r="S28" s="19">
+        <v>4693755.2110000001</v>
+      </c>
+      <c r="T28" s="19">
+        <v>594.38800000000003</v>
+      </c>
+      <c r="U28" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="W28">
+        <v>21</v>
+      </c>
+      <c r="X28">
+        <v>7513131.3550000004</v>
+      </c>
+      <c r="Y28">
+        <v>4691697.8609999996</v>
+      </c>
+      <c r="Z28">
+        <v>619.721</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="27"/>
+      <c r="Q29" s="25">
+        <v>50</v>
+      </c>
+      <c r="R29" s="19">
+        <v>7510831.8420000002</v>
+      </c>
+      <c r="S29" s="19">
+        <v>4693766.5599999996</v>
+      </c>
+      <c r="T29" s="19">
+        <v>593.30600000000004</v>
+      </c>
+      <c r="U29" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="W29">
+        <v>8</v>
+      </c>
+      <c r="X29">
+        <v>7513128.7640000004</v>
+      </c>
+      <c r="Y29">
+        <v>4691715.8310000002</v>
+      </c>
+      <c r="Z29">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E30" s="27"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="27"/>
+      <c r="Q30" s="25">
+        <v>51</v>
+      </c>
+      <c r="R30" s="19">
+        <v>7510832.6960000005</v>
+      </c>
+      <c r="S30" s="19">
+        <v>4693767.4139999999</v>
+      </c>
+      <c r="T30" s="19">
+        <v>593.298</v>
+      </c>
+      <c r="U30" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="W30">
+        <v>9</v>
+      </c>
+      <c r="X30">
+        <v>7513126.8399999999</v>
+      </c>
+      <c r="Y30">
+        <v>4691714.1189999999</v>
+      </c>
+      <c r="Z30">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E31" s="27"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="27"/>
+      <c r="Q31" s="25">
+        <v>73</v>
+      </c>
+      <c r="R31" s="19">
+        <v>7510835.4249999998</v>
+      </c>
+      <c r="S31" s="19">
+        <v>4693745.824</v>
+      </c>
+      <c r="T31" s="19">
+        <v>593.25400000000002</v>
+      </c>
+      <c r="U31" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="W31">
+        <v>10</v>
+      </c>
+      <c r="X31">
+        <v>7513129.2309999997</v>
+      </c>
+      <c r="Y31">
+        <v>4691711.4869999997</v>
+      </c>
+      <c r="Z31">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E32" s="27"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="27"/>
+      <c r="Q32" s="25">
+        <v>74</v>
+      </c>
+      <c r="R32" s="19">
+        <v>7510834.5439999998</v>
+      </c>
+      <c r="S32" s="19">
+        <v>4693744.9400000004</v>
+      </c>
+      <c r="T32" s="19">
+        <v>593.24800000000005</v>
+      </c>
+      <c r="U32" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="W32">
+        <v>22</v>
+      </c>
+      <c r="X32">
+        <v>7513130.176</v>
+      </c>
+      <c r="Y32">
+        <v>4691693.9610000001</v>
+      </c>
+      <c r="Z32">
+        <v>619.75699999999995</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="27"/>
+      <c r="Q33" s="25">
+        <v>75</v>
+      </c>
+      <c r="R33" s="19">
+        <v>7510834.4809999997</v>
+      </c>
+      <c r="S33" s="19">
+        <v>4693745.0439999998</v>
+      </c>
+      <c r="T33" s="19">
+        <v>594.46500000000003</v>
+      </c>
+      <c r="U33" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="W33">
+        <v>86</v>
+      </c>
+      <c r="X33">
+        <v>7513106.3210000005</v>
+      </c>
+      <c r="Y33">
+        <v>4691683.375</v>
+      </c>
+      <c r="Z33">
+        <v>619.49699999999996</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q34" s="21">
+        <v>27</v>
+      </c>
+      <c r="R34" s="18">
+        <v>7510846.4699999997</v>
+      </c>
+      <c r="S34" s="18">
+        <v>4693774.4309999999</v>
+      </c>
+      <c r="T34" s="18">
+        <v>580.39499999999998</v>
+      </c>
+      <c r="U34" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="W34">
+        <v>87</v>
+      </c>
+      <c r="X34">
+        <v>7513162.1500000004</v>
+      </c>
+      <c r="Y34">
+        <v>4691668.3320000004</v>
+      </c>
+      <c r="Z34">
+        <v>619.82500000000005</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="W35">
+        <v>54</v>
+      </c>
+      <c r="X35">
+        <v>7513135.5049999999</v>
+      </c>
+      <c r="Y35">
+        <v>4691723.3190000001</v>
+      </c>
+      <c r="Z35">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="W36">
+        <v>55</v>
+      </c>
+      <c r="X36">
+        <v>7513132.0180000002</v>
+      </c>
+      <c r="Y36">
+        <v>4691720.1610000003</v>
+      </c>
+      <c r="Z36">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="W37">
+        <v>56</v>
+      </c>
+      <c r="X37">
+        <v>7513133.0020000003</v>
+      </c>
+      <c r="Y37">
+        <v>4691719.1229999997</v>
+      </c>
+      <c r="Z37">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="W38">
+        <v>57</v>
+      </c>
+      <c r="X38">
+        <v>7513132.79</v>
+      </c>
+      <c r="Y38">
+        <v>4691719.4119999995</v>
+      </c>
+      <c r="Z38">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="W39">
+        <v>58</v>
+      </c>
+      <c r="X39">
+        <v>7513129.1050000004</v>
+      </c>
+      <c r="Y39">
+        <v>4691716.0439999998</v>
+      </c>
+      <c r="Z39">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="W40">
+        <v>59</v>
+      </c>
+      <c r="X40">
+        <v>7513127.0199999996</v>
+      </c>
+      <c r="Y40">
+        <v>4691714.199</v>
+      </c>
+      <c r="Z40">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="W41">
+        <v>60</v>
+      </c>
+      <c r="X41">
+        <v>7513127.1469999999</v>
+      </c>
+      <c r="Y41">
+        <v>4691713.0619999999</v>
+      </c>
+      <c r="Z41">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="W42">
+        <v>61</v>
+      </c>
+      <c r="X42">
+        <v>7513127.3590000002</v>
+      </c>
+      <c r="Y42">
+        <v>4691711.4989999998</v>
+      </c>
+      <c r="Z42">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="W43">
+        <v>62</v>
+      </c>
+      <c r="X43">
+        <v>7513131.8430000003</v>
+      </c>
+      <c r="Y43">
+        <v>4691706.5820000004</v>
+      </c>
+      <c r="Z43">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="W44">
+        <v>63</v>
+      </c>
+      <c r="X44">
+        <v>7513133.0470000003</v>
+      </c>
+      <c r="Y44">
+        <v>4691705.9019999998</v>
+      </c>
+      <c r="Z44">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="W45">
+        <v>64</v>
+      </c>
+      <c r="X45">
+        <v>7513133.8760000002</v>
+      </c>
+      <c r="Y45">
+        <v>4691705.8289999999</v>
+      </c>
+      <c r="Z45">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="W46">
+        <v>84</v>
+      </c>
+      <c r="X46">
+        <v>7513136.6900000004</v>
+      </c>
+      <c r="Y46">
+        <v>4691707.949</v>
+      </c>
+      <c r="Z46">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="W47">
+        <v>85</v>
+      </c>
+      <c r="X47">
+        <v>7513143.7450000001</v>
+      </c>
+      <c r="Y47">
+        <v>4691714.4460000005</v>
+      </c>
+      <c r="Z47">
+        <v>631.50699999999995</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>